--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_8_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_8_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46181.49078950373</v>
+        <v>9190116.667111231</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46181.49078950373</v>
+        <v>9190116.667111231</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2262.939762247197</v>
+        <v>135776.3857348318</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2262.939762247197</v>
+        <v>135776.3857348318</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035466747.220235</v>
+        <v>42175487.86403147</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8452.751621674053</v>
+        <v>923624.2566720173</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16433.38613471035</v>
+        <v>1773677.981932052</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24414.02064774665</v>
+        <v>2623731.707192088</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32735.63068254567</v>
+        <v>3484779.606992348</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41002.12314158711</v>
+        <v>4334859.10921685</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49268.61560062854</v>
+        <v>5184938.611441351</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57535.10805966997</v>
+        <v>6035018.113665849</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66576.29546820634</v>
+        <v>6920335.16902166</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75074.07378568751</v>
+        <v>7727854.369063099</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83693.80765872421</v>
+        <v>8559642.724660095</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>92146.32193594745</v>
+        <v>9409722.2268846</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100357.6968192313</v>
+        <v>10248833.33153335</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>108624.1892782727</v>
+        <v>11098912.83375785</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>116890.6817373141</v>
+        <v>11948992.33598236</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>125157.1741963556</v>
+        <v>12799071.83820687</v>
       </c>
     </row>
   </sheetData>
